--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390567</v>
+        <v>889432.3191390566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269840.1154735645</v>
+        <v>242506.9764965207</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072688</v>
+        <v>10911602.29072687</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132059</v>
+        <v>7937223.370132057</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>112.9995969463466</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>150.3641518778115</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.82206244933321</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -893,64 +893,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.92381696846063</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>11.85487546784171</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1032,13 +1032,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>129.6424525116601</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>231.8635835046283</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>61.97809761261716</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.2183845159407</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098638</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>1.99821925706101</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>264.3003558422773</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1503,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903385</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>274.6566269381913</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>53.57577516389619</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903408</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.74465137823626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>323.9918595228958</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.6929566097333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>94.63926978364077</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>116.1898439687558</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>352.0426595656933</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2445,7 +2445,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.5627265154904</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>353.8660181395769</v>
+        <v>276.0071288349781</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2603,13 +2603,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2682,7 +2682,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.85115782931148</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>235.4745188564439</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>356.3648034549183</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>41.250963186954</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>92.00803688215785</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.769908071584796</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>168.6816137320436</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4909289099629973</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.99240337009288</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.2439092740092</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>358.1335632777776</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>176.0115801625514</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>17.93026930120529</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>63.01667685547804</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>184.2720459863181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>145.4508280966912</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>201.0661795492183</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250885</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.80276983270126</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -4031,16 +4031,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>22.84146377816703</v>
+        <v>107.3569583805665</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>23.37809923434677</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>185.3367381288826</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.5332603973924</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6502787026334</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D3" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4419,13 +4419,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X3" t="n">
-        <v>284.5332603973924</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.5332603973924</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4653,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>952.0825338259476</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>749.8959391847136</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>521.6723209211027</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>521.6723209211027</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>521.6723209211027</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X6" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4747,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.8614515073803</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="C8" t="n">
-        <v>286.9604071117568</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="D8" t="n">
-        <v>286.9604071117568</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117568</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117568</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613337</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613337</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806669</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806669</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="V8" t="n">
-        <v>818.7624959030037</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="W8" t="n">
-        <v>552.8614515073803</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="X8" t="n">
-        <v>552.8614515073803</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="Y8" t="n">
-        <v>552.8614515073803</v>
+        <v>365.1489735786416</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613337</v>
+        <v>990.3639968040228</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613337</v>
+        <v>815.9109675228958</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613337</v>
+        <v>666.9765578616446</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613337</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613337</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683224</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>24.95018035683224</v>
+        <v>146.4169227739707</v>
       </c>
       <c r="L9" t="n">
-        <v>265.553708251695</v>
+        <v>376.3800286423199</v>
       </c>
       <c r="M9" t="n">
-        <v>526.1633218638455</v>
+        <v>376.3800286423199</v>
       </c>
       <c r="N9" t="n">
-        <v>609.9115941008256</v>
+        <v>552.1766855960238</v>
       </c>
       <c r="O9" t="n">
-        <v>870.3246581933179</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>983.5735772933371</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>913.3536059925872</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>711.3685484076631</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>483.1482196498678</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>483.1482196498678</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W9" t="n">
-        <v>228.9108629216662</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X9" t="n">
-        <v>21.05936271613337</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613337</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613337</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.3714747656866</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>55.96138511032507</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>55.96138511032507</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>55.96138511032507</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1726.5764050667</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1726.5764050667</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1353.11064680562</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>962.9713148298083</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="12">
@@ -5115,40 +5115,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>113.6371076753683</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1529.2861479534</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.323631012988</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.323631012988</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>1160.323631012988</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>749.337726223381</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>331.3739181215678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2643.032146408226</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2643.032146408226</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.969259064655</v>
       </c>
       <c r="W14" t="n">
-        <v>2289.351746278602</v>
+        <v>1959.200603794541</v>
       </c>
       <c r="X14" t="n">
-        <v>1915.885988017522</v>
+        <v>1585.734845533462</v>
       </c>
       <c r="Y14" t="n">
-        <v>1915.885988017522</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="15">
@@ -5346,28 +5346,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5376,13 +5376,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
         <v>2289.884200196743</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942405</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124032</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810049</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018223</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018223</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5613,31 +5613,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.76586200040109</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>471.4038777286581</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>471.4038777286581</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>243.4143268306408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>243.4143268306408</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1937.083492693021</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.12097575261</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D20" t="n">
-        <v>1209.855277145859</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E20" t="n">
-        <v>1209.855277145859</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>798.8693723562517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>380.9055642544386</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5750,10 +5750,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224079</v>
@@ -5795,7 +5795,7 @@
         <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>2323.683332757143</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2362.696896533841</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871845</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R22" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S22" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T22" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U22" t="n">
-        <v>2531.696696795508</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V22" t="n">
-        <v>2531.696696795508</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="W22" t="n">
-        <v>2531.696696795508</v>
+        <v>149.538203824042</v>
       </c>
       <c r="X22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1253.251950079336</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C23" t="n">
-        <v>884.2894331389248</v>
+        <v>1564.58148384092</v>
       </c>
       <c r="D23" t="n">
-        <v>766.9259543826058</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E23" t="n">
-        <v>381.1377017843616</v>
+        <v>820.5275326359249</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>409.5416278463173</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -5987,7 +5987,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6023,16 +6023,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1639.851790143458</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>351.9727148150933</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C25" t="n">
-        <v>351.9727148150933</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D25" t="n">
-        <v>201.8560754027576</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X25" t="n">
-        <v>533.621179645333</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y25" t="n">
-        <v>533.621179645333</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>923.1150787952342</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C26" t="n">
-        <v>923.1150787952342</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="D26" t="n">
-        <v>564.8493801884838</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="E26" t="n">
-        <v>564.8493801884838</v>
+        <v>813.398757420563</v>
       </c>
       <c r="F26" t="n">
-        <v>564.8493801884838</v>
+        <v>813.398757420563</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224077</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y26" t="n">
-        <v>1309.714918859356</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="27">
@@ -6279,55 +6279,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>90.15627255704271</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>90.15627255704271</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6409,25 +6409,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U28" t="n">
-        <v>490.2759348564911</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V28" t="n">
-        <v>235.5914466506042</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W28" t="n">
-        <v>235.5914466506042</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X28" t="n">
-        <v>235.5914466506042</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1584.823100673951</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.823100673951</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D29" t="n">
-        <v>1226.557402067201</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>840.7691494689566</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.288858935031</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.823100673951</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y29" t="n">
-        <v>1584.823100673951</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2547.032451605887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2399.119358023494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2252.229410525584</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018223</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253592</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6704,13 +6704,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>2471.73493313251</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.455337753612</v>
+        <v>2098.269174871431</v>
       </c>
       <c r="Y32" t="n">
-        <v>1166.959449965771</v>
+        <v>1708.129842895619</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
         <v>665.1105362747051</v>
@@ -6780,22 +6780,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2625.631141692262</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="C34" t="n">
-        <v>2625.631141692262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2475.514502279927</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2327.601408697533</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2625.631141692262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2625.631141692262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2625.631141692262</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U34" t="n">
-        <v>2625.631141692262</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V34" t="n">
-        <v>2625.631141692262</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W34" t="n">
-        <v>2625.631141692262</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X34" t="n">
-        <v>2625.631141692262</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y34" t="n">
-        <v>2625.631141692262</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1405.321187657107</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.358670716696</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X35" t="n">
-        <v>1540.921096014692</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y35" t="n">
-        <v>1540.921096014692</v>
+        <v>1547.452423968254</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036446</v>
@@ -7017,22 +7017,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036446</v>
@@ -7129,16 +7129,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1112.426648284105</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C38" t="n">
-        <v>743.4641313436935</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D38" t="n">
-        <v>385.1984327369429</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E38" t="n">
-        <v>385.1984327369429</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>385.1984327369429</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
         <v>207.4089578252748</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.037707885692</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2460.403040857755</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2460.403040857755</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="W38" t="n">
-        <v>1485.892406545185</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="X38" t="n">
-        <v>1112.426648284105</v>
+        <v>2129.340153514184</v>
       </c>
       <c r="Y38" t="n">
-        <v>1112.426648284105</v>
+        <v>1739.200821538372</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7254,13 +7254,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7290,10 +7290,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.9956044222747</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C40" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7336,46 +7336,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>541.9956044222747</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>541.9956044222747</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W40" t="n">
-        <v>541.9956044222747</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X40" t="n">
-        <v>541.9956044222747</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y40" t="n">
-        <v>541.9956044222747</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1494.154169929768</v>
+        <v>1313.879478346267</v>
       </c>
       <c r="C41" t="n">
-        <v>1125.191652989356</v>
+        <v>944.9169614058553</v>
       </c>
       <c r="D41" t="n">
-        <v>766.9259543826058</v>
+        <v>586.6512627991049</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>200.8630102008606</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>200.8630102008606</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>200.8630102008606</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8630102008606</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2220.388583460962</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V41" t="n">
-        <v>2220.388583460962</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="W41" t="n">
-        <v>1867.619928190848</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X41" t="n">
-        <v>1494.154169929768</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1494.154169929768</v>
+        <v>1700.479318410389</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641999</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598717</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7521,19 +7521,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V42" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D43" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E43" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F43" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G43" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H43" t="n">
-        <v>125.4609311463253</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>797.9969330253591</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253591</v>
+        <v>739.4034003911121</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1971.274048960885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W44" t="n">
-        <v>1948.201863326372</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="X44" t="n">
-        <v>1574.736105065293</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y44" t="n">
-        <v>1184.596773089481</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7764,10 +7764,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.7120650600564</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C46" t="n">
-        <v>529.7758821321495</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D46" t="n">
-        <v>529.7758821321495</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E46" t="n">
-        <v>529.7758821321495</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F46" t="n">
-        <v>382.8859346342391</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G46" t="n">
-        <v>213.8861343725715</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>213.8861343725715</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>77.55722347121977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>698.7120650600564</v>
+        <v>540.9201578136235</v>
       </c>
       <c r="W46" t="n">
-        <v>698.7120650600564</v>
+        <v>540.9201578136235</v>
       </c>
       <c r="X46" t="n">
-        <v>698.7120650600564</v>
+        <v>540.9201578136235</v>
       </c>
       <c r="Y46" t="n">
-        <v>698.7120650600564</v>
+        <v>540.9201578136235</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3760678736855</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>215.9359264641213</v>
+        <v>308.9140928446504</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142019</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>226.4752051694205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22626,10 +22626,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>22.34434711050429</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>128.6230031153056</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22781,31 +22781,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>283.0065531038011</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22869,22 +22869,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>159.8282956359961</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22920,13 +22920,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.6874957598916</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0308578193404</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521642</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>208.8848689792183</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>95.8886749655066</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>104.5550860372502</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>32.54533681734475</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>8.11441070893386</v>
       </c>
       <c r="H10" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>98.27937439570995</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
         <v>227.7682732010226</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23276,7 +23276,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>149.9330969878002</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>63.45190262785758</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.2515653842938</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>49.26614582616583</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>162.8725451937616</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229436</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932783</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>159.5021697203916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>30.69118209778719</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2298161546238475</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24169,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R22" t="n">
-        <v>11.99007165458445</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,16 +24181,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053964</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>238.4931976519272</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>61.74151045510166</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24263,16 +24263,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>33.18493406278941</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853699</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.14692887354673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>59.91815188121808</v>
+        <v>137.7770411858169</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>99.11446396302675</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24649,13 +24649,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>50.80735538553381</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>26.36903820856224</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>365.6250825547575</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>75.30176537689306</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24886,13 +24886,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>223.2651973864995</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>180.5593549853695</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>385.7470097460906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.2544177285349</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25120,13 +25120,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>75.86242214745677</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.4899323894714</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>48.74248246393381</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>103.670039652534</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25369,13 +25369,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>237.7725898582435</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>156.4854435077663</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>116.8153033264593</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>102.0098282556596</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>6.480488148170082</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>50.15798795907097</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,25 +25789,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>64.16285195963697</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,10 +25840,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569147</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25880,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25919,16 +25919,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>326.399504939246</v>
+        <v>241.8840103368465</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.82185995419023</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26065,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26080,7 +26080,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>66.80090519494541</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.3990502443</v>
+        <v>459351.399050244</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26317,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972483</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26338,10 +26338,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="L2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266359</v>
+        <v>26613.587572663</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835739</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525788</v>
+        <v>5625.642228525672</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714451</v>
+        <v>196.6176664714447</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="I4" t="n">
         <v>513.1084990597035</v>
-      </c>
-      <c r="I4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
@@ -26454,7 +26454,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26473,28 +26473,28 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="H5" t="n">
         <v>49231.47806340948</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26506,7 +26506,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>12006.33885861911</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016684</v>
+        <v>92775.77039016686</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535127984</v>
+        <v>70394.51535128019</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326492</v>
+        <v>-211685.3057326495</v>
       </c>
       <c r="F6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="G6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="H6" t="n">
         <v>196035.1319509247</v>
@@ -26546,22 +26546,22 @@
         <v>132975.1893518185</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.4897223988</v>
+        <v>190409.4897223991</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028967</v>
+        <v>93601.01426028961</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="O6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509247</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26771,13 +26771,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26793,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
@@ -26811,10 +26811,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26826,10 +26826,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028885</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400766</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400754</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31616,25 +31616,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>61.04368814949403</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,7 +31856,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31993,43 +31993,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,25 +32169,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32464,10 +32464,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32476,34 +32476,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32640,28 +32640,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,7 +32801,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479578</v>
@@ -33026,7 +33026,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33260,10 +33260,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33737,7 +33737,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,19 +33962,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044147</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34302,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34539,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>84.59421438078802</v>
+        <v>177.5723807613171</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.29709682323617</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35504,7 +35504,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,13 +35972,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36124,22 +36124,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M22" t="n">
         <v>146.3614835535656</v>
@@ -36291,10 +36291,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36449,7 +36449,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735647</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898699</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047531</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,13 +38105,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390566</v>
+        <v>929720.4897610371</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242506.9764965207</v>
+        <v>239176.1458622053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132057</v>
+        <v>7919633.117874095</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>112.9995969463466</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>18.82206244933321</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>8.583694061601907</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -902,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>98.92381696846063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>129.6424525116601</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>220.2131257424248</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.97809761261716</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1221,19 +1223,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>84.47684708846084</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99821925706101</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.72834075468934</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.36390763391859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>6.908481403325754</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.178315471687742</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>53.57577516389619</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>339.0399185806816</v>
+        <v>293.6853147803806</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>323.9918595228958</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>258.5713913920425</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2214,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.42715891997993</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>94.63926978364077</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>8.892594560364216</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>352.0426595656933</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2445,7 +2447,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>15.57897922163638</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>276.0071288349781</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>248.2728740932117</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.85115782931148</v>
+        <v>83.82466560786642</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>356.3648034549183</v>
+        <v>237.4552014283703</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.769908071584796</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>168.6816137320436</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>125.4763835556439</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.99240337009288</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>358.1335632777776</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>242.0561981984261</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3399,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>41.75100837039722</v>
+        <v>124.6873033904184</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>343.2761679892519</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>17.93026930120529</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.01667685547804</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>201.0399823586328</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>145.4508280966912</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250885</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>253.2238293577053</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4028,22 +4030,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>107.3569583805665</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>185.3367381288826</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.6929175551172</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C3" t="n">
-        <v>380.6929175551172</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D3" t="n">
-        <v>361.6807332628614</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E3" t="n">
-        <v>361.6807332628614</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>380.6929175551172</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W6" t="n">
-        <v>55.04605772994853</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365.1489735786416</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C8" t="n">
-        <v>365.1489735786416</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D8" t="n">
-        <v>365.1489735786416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>365.1489735786416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>365.1489735786416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>365.1489735786416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>234.1970013446415</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>843.966258332007</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>619.0259954159469</v>
+        <v>728.6161971483368</v>
       </c>
       <c r="U8" t="n">
-        <v>365.1489735786416</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V8" t="n">
-        <v>365.1489735786416</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W8" t="n">
-        <v>365.1489735786416</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X8" t="n">
-        <v>365.1489735786416</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y8" t="n">
-        <v>365.1489735786416</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>990.3639968040228</v>
+        <v>587.9903182850351</v>
       </c>
       <c r="C9" t="n">
-        <v>815.9109675228958</v>
+        <v>413.5372890039081</v>
       </c>
       <c r="D9" t="n">
-        <v>666.9765578616446</v>
+        <v>264.6028793426568</v>
       </c>
       <c r="E9" t="n">
-        <v>507.7391028561891</v>
+        <v>105.3654243372013</v>
       </c>
       <c r="F9" t="n">
-        <v>361.204544883074</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>146.4169227739707</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>376.3800286423199</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>376.3800286423199</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N9" t="n">
-        <v>552.1766855960238</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O9" t="n">
-        <v>800.9300996799861</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P9" t="n">
-        <v>983.5735772933371</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X9" t="n">
-        <v>1052.968135806666</v>
+        <v>756.2056553051032</v>
       </c>
       <c r="Y9" t="n">
-        <v>1052.968135806666</v>
+        <v>756.2056553051032</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C11" t="n">
-        <v>825.2129885066831</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>466.9472898999326</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>466.9472898999326</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>55.96138511032507</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>55.96138511032507</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>55.96138511032507</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5051,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2555.52611795812</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="12">
@@ -5124,31 +5126,31 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>710.5896835661124</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>562.6765899837193</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.13500546934</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C14" t="n">
-        <v>830.1724885289282</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D14" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.958873370053</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.781385684223</v>
       </c>
       <c r="T14" t="n">
-        <v>2643.032146408226</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U14" t="n">
-        <v>2643.032146408226</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.969259064655</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W14" t="n">
-        <v>1959.200603794541</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X14" t="n">
-        <v>1585.734845533462</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y14" t="n">
-        <v>1585.734845533462</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5357,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5379,10 +5381,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
         <v>2289.884200196743</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2354.684526795312</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="Y17" t="n">
-        <v>1964.5451948195</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,19 +5594,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5616,25 +5618,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5704,7 +5706,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082163</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>1401.300350501144</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>1401.300350501144</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1011.161018525332</v>
       </c>
     </row>
     <row r="21">
@@ -5820,46 +5822,46 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>2486.083707041605</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>2317.147524113698</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>2167.030884701362</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>2167.030884701362</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>2167.030884701362</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>2167.030884701362</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>2167.030884701362</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658211</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502503</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594904</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064347</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064347</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064347</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064347</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064347</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610026</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610026</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="W22" t="n">
-        <v>149.538203824042</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871844</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1933.544000781331</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C23" t="n">
-        <v>1564.58148384092</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.315785234169</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E23" t="n">
-        <v>820.5275326359249</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F23" t="n">
-        <v>409.5416278463173</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044453</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C25" t="n">
-        <v>2125.771864116546</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D25" t="n">
-        <v>2125.771864116546</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E25" t="n">
-        <v>2125.771864116546</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F25" t="n">
-        <v>2125.771864116546</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G25" t="n">
-        <v>2125.771864116546</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874693</v>
+        <v>712.3926415583167</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1568.149526959219</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C26" t="n">
-        <v>1199.187010018807</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D26" t="n">
-        <v>1199.187010018807</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E26" t="n">
-        <v>813.398757420563</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F26" t="n">
-        <v>813.398757420563</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
         <v>534.603677789272</v>
@@ -6221,7 +6223,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6230,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,10 +6244,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6260,16 +6262,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.288858935031</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X26" t="n">
-        <v>1958.288858935031</v>
+        <v>2038.571065376368</v>
       </c>
       <c r="Y26" t="n">
-        <v>1568.149526959219</v>
+        <v>1648.431733400556</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6324,10 +6326,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="C28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="D28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="E28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="F28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="G28" t="n">
-        <v>90.15627255704271</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="H28" t="n">
-        <v>90.15627255704271</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="X28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="Y28" t="n">
-        <v>259.1560728187103</v>
+        <v>184.2708856551154</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6464,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6491,22 +6493,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V29" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.111371249201</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.111371249201</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.111371249201</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6543,40 +6545,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
         <v>53.94298182036445</v>
@@ -6625,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>512.0527750937034</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>222.8791647482714</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>222.8791647482714</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1321.530002831497</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2471.73493313251</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>2098.269174871431</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y32" t="n">
-        <v>1708.129842895619</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.37975290126636</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>500.8207968750362</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>500.8207968750362</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V34" t="n">
-        <v>500.8207968750362</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W34" t="n">
-        <v>500.8207968750362</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>500.8207968750362</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>280.0282177315061</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1160.852583904132</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C35" t="n">
-        <v>1160.852583904132</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.852583904132</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>1160.852583904132</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="W35" t="n">
-        <v>2311.057514205145</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="X35" t="n">
-        <v>1937.591755944065</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y35" t="n">
-        <v>1547.452423968254</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785276</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D37" t="n">
-        <v>559.1928012785276</v>
+        <v>327.8028465041903</v>
       </c>
       <c r="E37" t="n">
-        <v>559.1928012785276</v>
+        <v>179.8897529217971</v>
       </c>
       <c r="F37" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1352.60098147425</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C38" t="n">
-        <v>983.6384645338385</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D38" t="n">
-        <v>625.3727659270879</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="E38" t="n">
-        <v>625.3727659270879</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
         <v>207.4089578252748</v>
@@ -7172,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2679.037707885692</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2460.403040857755</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2460.403040857755</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2129.340153514184</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2129.340153514184</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>2129.340153514184</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1739.200821538372</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7254,10 +7256,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7272,28 +7274,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7351,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931987</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931987</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y40" t="n">
-        <v>286.5323736931987</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1313.879478346267</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C41" t="n">
-        <v>944.9169614058553</v>
+        <v>1899.692126347224</v>
       </c>
       <c r="D41" t="n">
-        <v>586.6512627991049</v>
+        <v>1541.426427740474</v>
       </c>
       <c r="E41" t="n">
-        <v>200.8630102008606</v>
+        <v>1155.638175142229</v>
       </c>
       <c r="F41" t="n">
-        <v>200.8630102008606</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G41" t="n">
-        <v>200.8630102008606</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>200.8630102008606</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7430,31 +7432,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2090.6186503862</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1700.479318410389</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641999</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598717</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417903</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152627</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7521,19 +7523,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2708856551153</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036447</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1108.365917331524</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C44" t="n">
-        <v>739.4034003911121</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1377017843616</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.54646147304</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W44" t="n">
-        <v>1885.105089371457</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X44" t="n">
-        <v>1885.105089371457</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y44" t="n">
-        <v>1494.965757395646</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="45">
@@ -7701,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C46" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D46" t="n">
-        <v>359.2716929833838</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7837,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>540.9201578136235</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W46" t="n">
-        <v>540.9201578136235</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X46" t="n">
-        <v>540.9201578136235</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.9201578136235</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8543,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>308.9140928446504</v>
+        <v>231.1529892133071</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142019</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>226.4752051694205</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.6230031153056</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>103.6517501748946</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22790,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>283.0065531038011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22914,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.6874957598916</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>208.8848689792183</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.13252716541166</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.5550860372502</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23109,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>60.59236530492304</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>149.9330969878002</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>88.68737205428216</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>131.2515653842938</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>53.30008710312397</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.8725451937616</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>130.2386507606558</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>30.69118209778748</v>
+        <v>76.04578589808847</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>30.69118209778719</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>90.66957732537048</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>37.53846287235829</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.0703856053964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>356.3802972106433</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>61.74151045510166</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,10 +24265,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.18493406278941</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>203.0056741304584</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>137.7770411858169</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,13 +24502,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>121.4582265852573</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>99.11446396302675</v>
+        <v>51.1409561844718</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.36903820856224</v>
+        <v>145.2786402351102</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>223.2651973864995</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>180.5593549853695</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>260.7615551004097</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.2544177285349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>48.74248246393381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>85.69606027170877</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>103.670039652534</v>
+        <v>20.7337446325129</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>63.59987775245958</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>156.4854435077663</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116.8153033264593</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25606,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.4179433475676</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>205.8360633830787</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.480488148170082</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.56002855569147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>128.7065407145565</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.8840103368465</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>59.30821556748147</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>66.80090519494541</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.7822080309</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.399050244</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
+        <v>141236.5716516326</v>
+      </c>
+      <c r="D2" t="n">
         <v>141236.5716516325</v>
       </c>
-      <c r="D2" t="n">
-        <v>147339.127997248</v>
-      </c>
       <c r="E2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26338,7 +26340,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525672</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714447</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26433,7 +26435,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26445,16 +26447,16 @@
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,28 +26487,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861911</v>
+        <v>12006.3388586191</v>
       </c>
       <c r="C6" t="n">
+        <v>92775.77039016693</v>
+      </c>
+      <c r="D6" t="n">
         <v>92775.77039016686</v>
       </c>
-      <c r="D6" t="n">
-        <v>70394.51535128019</v>
-      </c>
       <c r="E6" t="n">
-        <v>-211685.3057326495</v>
+        <v>-236811.0420920714</v>
       </c>
       <c r="F6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="G6" t="n">
         <v>196035.1319509247</v>
       </c>
-      <c r="G6" t="n">
-        <v>196035.1319509246</v>
-      </c>
       <c r="H6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="I6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="J6" t="n">
-        <v>132975.1893518185</v>
+        <v>132975.1893518184</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.4897223991</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028961</v>
+        <v>88061.77127686657</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="O6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26753,22 +26755,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -31625,16 +31627,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32075,16 +32077,16 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M15" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32315,7 +32317,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32327,7 +32329,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32464,46 +32466,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639066</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32640,28 +32642,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32801,25 +32803,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33974,7 +33976,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>11.76595806653259</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34138,28 +34140,28 @@
         <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044147</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34445,7 +34447,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,7 +34465,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>177.5723807613171</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35975,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
         <v>146.3614835535656</v>
@@ -36291,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37786,19 +37788,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898699</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047531</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38111,7 +38113,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>929720.4897610371</v>
+        <v>861494.9029543325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239176.1458622053</v>
+        <v>174052.5941767488</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7919633.117874095</v>
+        <v>7968002.373389173</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>60.28005125577188</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>231.8635835046283</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>110.1497834296626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755903</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.014288877659</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>220.2131257424248</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.47684708846084</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>58.04051375196644</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>85.72834075468934</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>219.2715106616313</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1548,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>6.908481403325754</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.44045292477207</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.6704222614788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.178315471687742</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18.3768222575565</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>303.5313813159055</v>
       </c>
       <c r="X17" t="n">
-        <v>293.6853147803806</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.164013692469431</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>140.9926191892289</v>
       </c>
       <c r="W20" t="n">
-        <v>258.5713913920425</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I22" t="n">
-        <v>97.42715891997993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.892594560364216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>116.3856072204742</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.57897922163638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>58.49852621786729</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>248.2728740932117</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.82466560786642</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.4552014283703</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2842,22 +2842,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>119.2212137007565</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>65.00793302275939</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>125.4763835556439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.04040109188399</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>242.0561981984261</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>139.1005047045661</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>124.6873033904184</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>343.2761679892519</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>22.34164242902998</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>55.71969997626034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.0399823586328</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>253.2238293577053</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>361.1664583402041</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.847049572024792</v>
       </c>
       <c r="D46" t="n">
-        <v>89.30725745073089</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>266.5980815799443</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.8418184905681</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>621.3887892094411</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>472.4543795481899</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>313.2169245427344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>166.6823665696193</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>27.95154115223485</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>551.996449470862</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>917.3619887821737</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>682.2098805504311</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>435.1768175593782</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>521.1660470154218</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>255.2650026197983</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>787.0670914110452</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>394.9337607940764</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>536.5632821650597</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>536.5632821650597</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>785.316696249022</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>977.3180709271207</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>824.7478070488735</v>
       </c>
       <c r="V6" t="n">
-        <v>852.7947480059265</v>
+        <v>589.5956988171308</v>
       </c>
       <c r="W6" t="n">
-        <v>609.3459713618265</v>
+        <v>335.3583420889292</v>
       </c>
       <c r="X6" t="n">
-        <v>401.4944711562937</v>
+        <v>127.5068418833964</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543127</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543127</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424089</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424089</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483368</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984127</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984127</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984127</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984127</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984127</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>587.9903182850351</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C9" t="n">
-        <v>413.5372890039081</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="D9" t="n">
-        <v>264.6028793426568</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E9" t="n">
-        <v>105.3654243372013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363992</v>
+        <v>312.6962565341261</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>586.091205099458</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>852.5880186827417</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>1035.231496296092</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>1045.999273241779</v>
       </c>
       <c r="T9" t="n">
-        <v>964.057155510636</v>
+        <v>1045.999273241779</v>
       </c>
       <c r="U9" t="n">
-        <v>964.057155510636</v>
+        <v>817.7806608759265</v>
       </c>
       <c r="V9" t="n">
-        <v>964.057155510636</v>
+        <v>817.7806608759265</v>
       </c>
       <c r="W9" t="n">
-        <v>964.057155510636</v>
+        <v>563.5433041477249</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051032</v>
+        <v>563.5433041477249</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2056553051032</v>
+        <v>355.783005382771</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.321187657107</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2555.52611795812</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2555.52611795812</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2555.52611795812</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V11" t="n">
-        <v>2555.52611795812</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W11" t="n">
-        <v>2555.52611795812</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.06035969704</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1791.921027721229</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5126,10 +5126,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5141,7 +5141,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240413</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261309</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644633</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>670.1083246864625</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.553390680693</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2695.958873370053</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2519.781385684223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2301.146718656286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2047.384933294377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1716.322045950807</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>1363.553390680693</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>1363.553390680693</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y14" t="n">
-        <v>1363.553390680693</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,49 +5357,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5472,16 +5472,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C17" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="X17" t="n">
-        <v>1992.699913167106</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1602.560581191294</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="18">
@@ -5591,10 +5591,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5609,13 +5609,13 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260239</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.139433308417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.161018525332</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.161018525332</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.161018525332</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2300.970518596487</v>
       </c>
       <c r="W20" t="n">
-        <v>1401.300350501144</v>
+        <v>1948.201863326372</v>
       </c>
       <c r="X20" t="n">
-        <v>1401.300350501144</v>
+        <v>1574.736105065293</v>
       </c>
       <c r="Y20" t="n">
-        <v>1011.161018525332</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="21">
@@ -5855,13 +5855,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2486.083707041605</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>2317.147524113698</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>2167.030884701362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>2167.030884701362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>2167.030884701362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>2167.030884701362</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H22" t="n">
-        <v>2167.030884701362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2667.732171871844</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2667.732171871844</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>808.0839286340174</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1958.288858935031</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1584.823100673951</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y23" t="n">
-        <v>1194.683768698139</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6068,43 +6068,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>113.6371076753683</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>530.7441767280769</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>361.80799380017</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D25" t="n">
-        <v>211.6913543878343</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E25" t="n">
-        <v>211.6913543878343</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="F25" t="n">
-        <v>211.6913543878343</v>
+        <v>141.7052272592275</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6186,13 +6186,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>712.3926415583167</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1261.831893336434</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C26" t="n">
-        <v>892.8693763960225</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D26" t="n">
-        <v>534.603677789272</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>440.2271222064498</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>113.0324022424526</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.351746278602</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X26" t="n">
-        <v>2038.571065376368</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y26" t="n">
-        <v>1648.431733400556</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6302,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G28" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>184.2708856551154</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>184.2708856551154</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.2708856551154</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1363.553390680693</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C29" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D29" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2521.694933164113</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2521.694933164113</v>
       </c>
       <c r="W29" t="n">
-        <v>1993.54646147304</v>
+        <v>2168.926277893999</v>
       </c>
       <c r="X29" t="n">
-        <v>1993.54646147304</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y29" t="n">
-        <v>1603.407129497228</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6654,16 +6654,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
         <v>53.94298182036445</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.9054987607761</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2631.484512207354</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2377.722726845446</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2046.659839501875</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>1693.891184231761</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982757</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="Y32" t="n">
-        <v>809.505338824898</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6782,22 +6782,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>121.8625376591735</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>121.8625376591735</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1422.14692331494</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
         <v>1422.14692331494</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2198.886095354873</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W35" t="n">
-        <v>2198.886095354873</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="X35" t="n">
-        <v>2198.886095354873</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y35" t="n">
-        <v>1808.746763379062</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>477.919485916526</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>477.919485916526</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>327.8028465041903</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>179.8897529217971</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>698.7120650600561</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>477.919485916526</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>923.1150787952338</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C38" t="n">
-        <v>554.1525618548221</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D38" t="n">
-        <v>554.1525618548221</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E38" t="n">
-        <v>554.1525618548221</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F38" t="n">
-        <v>207.4089578252748</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859356</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.714918859356</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7353,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>257.1154545468206</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="U40" t="n">
-        <v>257.1154545468206</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V40" t="n">
-        <v>200.8329293182748</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2268.654643287636</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1899.692126347224</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1541.426427740474</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>1155.638175142229</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2268.654643287636</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="U43" t="n">
-        <v>2567.064746875</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="V43" t="n">
-        <v>2312.380258669114</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="W43" t="n">
-        <v>2022.963088632153</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632153</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>667.1367049631893</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.111371249201</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C44" t="n">
-        <v>1413.148854308789</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D44" t="n">
-        <v>1054.883155702039</v>
+        <v>1222.509646904467</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>836.7213943062222</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.111371249201</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.111371249201</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C46" t="n">
-        <v>438.9553738610022</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>318.041955063331</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>387.1589768055868</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>285.1941565189711</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>187.0312751798332</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133071</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>7.620342298165212</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>103.6517501748946</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>165.6608109389445</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>90.83571695072732</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118134</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900443</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>183.3466378992031</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>122.9959047043864</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>122.6508037197627</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>100.299691401714</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>63.45830508392172</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858216</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13252716541166</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.59236530492304</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>112.2434588693667</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.68737205428216</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>129.9694580557818</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>128.0571403890125</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>167.5946525333122</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>69.6024695095287</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.30008710312397</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>130.2386507606558</v>
+        <v>19.83197231642228</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>45.70958740150746</v>
       </c>
       <c r="X17" t="n">
-        <v>76.04578589808847</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>141.2570343304618</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>186.759639280906</v>
       </c>
       <c r="W20" t="n">
-        <v>90.66957732537048</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I22" t="n">
-        <v>37.53846287235829</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>356.3802972106433</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>253.3454934579948</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>80.42517927457646</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.0056741304584</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>93.43279002699396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>121.4582265852573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>51.1409561844718</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.2786402351102</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>132.0029538075328</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>151.4403873348984</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>260.7615551004097</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>145.2694011671669</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,13 +25210,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>85.69606027170877</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>210.1404640128469</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>20.7337446325129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>63.59987775245958</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>202.6934630290543</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>196.4179433475676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.8360633830787</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25839,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>164.6527490072719</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>128.7065407145565</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>45.70958740150729</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25924,16 +25924,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>163.399771526603</v>
       </c>
       <c r="D46" t="n">
-        <v>59.30821556748147</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.782208031</v>
+        <v>443398.5167931501</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.782208031</v>
+        <v>459351.3990502443</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440325.782208031</v>
+        <v>469531.8577299755</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516326</v>
+        <v>147339.1279972482</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,22 +26328,22 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.3401818957</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214081</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.45449175018</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581442</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>99215.77767884452</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>182.2467736288815</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>196.6176664714451</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.3388586191</v>
+        <v>-4195.99844542045</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016693</v>
+        <v>61503.7260246905</v>
       </c>
       <c r="D6" t="n">
-        <v>92775.77039016686</v>
+        <v>73254.34891165655</v>
       </c>
       <c r="E6" t="n">
-        <v>-236811.0420920714</v>
+        <v>-204250.574708655</v>
       </c>
       <c r="F6" t="n">
-        <v>196035.1319509248</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="G6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051054</v>
       </c>
       <c r="H6" t="n">
-        <v>196035.1319509248</v>
+        <v>189966.7182051054</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="J6" t="n">
-        <v>132975.1893518184</v>
+        <v>125978.3466592067</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509248</v>
+        <v>185159.2637133553</v>
       </c>
       <c r="L6" t="n">
-        <v>196035.1319509247</v>
+        <v>186698.179610524</v>
       </c>
       <c r="M6" t="n">
-        <v>88061.77127686657</v>
+        <v>90750.94052626097</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509246</v>
+        <v>189966.7182051054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233544</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768966</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31147,22 +31147,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31384,22 +31384,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -31627,16 +31627,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32077,13 +32077,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32098,7 +32098,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32314,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32329,13 +32329,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32551,7 +32551,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32788,10 +32788,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949404</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33502,7 +33502,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33520,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33660,7 +33660,7 @@
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
         <v>239.6413398630669</v>
@@ -33754,7 +33754,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33915,7 +33915,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
         <v>95.39071536633797</v>
@@ -33976,7 +33976,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34140,7 +34140,7 @@
         <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34210,10 +34210,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
@@ -34450,7 +34450,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>175.9079211413127</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>143.0601225969528</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903826</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.89724125781488</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997385</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.29709682323618</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,10 +38110,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
